--- a/design/黑白名单规则设计.xlsx
+++ b/design/黑白名单规则设计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>黑名单规则</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -70,6 +70,21 @@
 描述是否包含关键词
 标签是否包含关键词
 封面信息是否包含关键词（尚未实现） 上述4个条件任意包含2个</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict</t>
+  </si>
+  <si>
+    <t>dict</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>写死</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WhiteListRule--&gt; dict</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -77,7 +92,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +123,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF000000"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -148,7 +170,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -169,6 +191,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -473,19 +498,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="63.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="62.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -493,49 +519,76 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="36.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
       <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="57.75" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="54.75" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
       <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="104.25" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
       <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E5" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="29.25" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -553,7 +606,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -566,7 +619,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
